--- a/src/output/4-analyzer/all-cite.xlsx
+++ b/src/output/4-analyzer/all-cite.xlsx
@@ -541,17 +541,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>digital cash</t>
+          <t>electronic commerce</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>electronic commerce</t>
+          <t>apply compute</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -603,17 +603,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>apply compute</t>
+          <t>digital cash</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>extra-functional property</t>
+          <t>software performance</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -665,7 +665,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>compute platform</t>
+          <t>property</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -696,7 +696,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>software performance</t>
+          <t>extra-functional property</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -727,11 +727,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>it engineer</t>
+          <t>compute platform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>information system application</t>
+          <t>software organization</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -789,7 +789,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>software organization</t>
+          <t>information system application</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -820,11 +820,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>information system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>information system</t>
+          <t>it engineer</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -882,11 +882,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>overflow vulnerability</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -901,23 +901,23 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>overflow vulnerability</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -929,26 +929,26 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>taint analysis</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -963,23 +963,23 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>taint analysis</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -991,22 +991,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>network simulation</t>
+          <t>network performance evaluation</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1068,7 +1068,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>network performance evaluation</t>
+          <t>network simulation</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>malware mitigation</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1192,7 +1192,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>web mine</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1223,7 +1223,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1254,7 +1254,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>malware mitigation</t>
+          <t>web</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1285,7 +1285,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>web application security</t>
+          <t>web mine</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1316,7 +1316,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>intrusion/anomaly detection</t>
+          <t>web application security</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1347,7 +1347,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>intrusion/anomaly detection</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1378,7 +1378,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1409,17 +1409,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>online bank</t>
+          <t>compute</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>professional topic</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1471,17 +1471,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>compute</t>
+          <t>secure online transaction</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1502,17 +1502,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>secure online transaction</t>
+          <t>professional topic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D35" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1533,17 +1533,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>privacy policy</t>
+          <t>electronic fund transfer</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>electronic fund transfer</t>
+          <t>domain-specific security and privacy architecture</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1626,7 +1626,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>domain-specific security and privacy architecture</t>
+          <t>online bank</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1719,11 +1719,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>security service</t>
+          <t>multi-factor authentication</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1750,11 +1750,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>multi-factor authentication</t>
+          <t>security service</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>program language usability</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1812,7 +1812,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>program language usability</t>
+          <t>program</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1843,7 +1843,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>software notation</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1905,7 +1905,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>repository</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1936,7 +1936,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>software notation</t>
+          <t>repository</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2029,7 +2029,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>software verification</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2060,7 +2060,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>software defect analysis</t>
+          <t>software verification</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2091,7 +2091,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2122,7 +2122,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>software test</t>
+          <t>software creation</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2153,11 +2153,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>software defect analysis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>software test</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2215,11 +2215,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>software creation</t>
+          <t>validation</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2401,7 +2401,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>distribute architecture</t>
+          <t>peer-to-peer architecture</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2463,7 +2463,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer architecture</t>
+          <t>distribute architecture</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2525,7 +2525,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>time-based model</t>
+          <t>double-spend attack</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2556,32 +2556,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>attacker advantage</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="B69" t="n">
+        <v>564</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>45</v>
+      </c>
+      <c r="E69" t="n">
+        <v>356</v>
+      </c>
+      <c r="F69" t="n">
+        <v>26</v>
+      </c>
+      <c r="G69" t="n">
+        <v>71</v>
+      </c>
+      <c r="H69" t="n">
+        <v>55</v>
+      </c>
+      <c r="I69" t="n">
         <v>3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2618,38 +2618,38 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>attacker advantage</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>356</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>double-spend attack</t>
+          <t>time-based model</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2680,11 +2680,11 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>message authentication code</t>
+          <t>cryptography</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2696,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2742,11 +2742,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>cryptography</t>
+          <t>message authentication code</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">distribute denial-of-service </t>
+          <t>cooperative defense</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2804,7 +2804,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>cooperative defense</t>
+          <t xml:space="preserve">distribute denial-of-service </t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2835,7 +2835,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2928,7 +2928,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>statistic</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3052,11 +3052,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>theory of security</t>
+          <t>formal approach</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>101</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>logic</t>
+          <t>theory of security</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3114,11 +3114,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>formal approach</t>
+          <t>security in hardware</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3133,23 +3133,23 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>security in hardware</t>
+          <t>logic</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>general conference proceed</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3486,7 +3486,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>general conference proceed</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3517,7 +3517,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>general</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3641,7 +3641,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>record storage system</t>
+          <t>information storage system</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3672,7 +3672,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>information storage system</t>
+          <t>record storage system</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3827,11 +3827,11 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>anomaly detection</t>
+          <t>machine learning</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>supervise learn</t>
+          <t>learn paradigm</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3889,7 +3889,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>learn paradigm</t>
+          <t>supervise learn</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3920,11 +3920,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>machine learning</t>
+          <t>anomaly detection</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H113" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -3951,17 +3951,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>anonymity</t>
+          <t>pseudonymity</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>cryptographic protocol</t>
+          <t>computational complexity</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4013,17 +4013,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>untraceability</t>
+          <t>anonymity</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4044,7 +4044,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>pseudonymity</t>
+          <t>cryptographic protocol</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4075,7 +4075,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>computational complexity</t>
+          <t>untraceability</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4168,7 +4168,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>internet of things</t>
+          <t>consensus protocol</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4181,25 +4181,25 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G121" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>consensus protocol</t>
+          <t>internet of things</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4212,19 +4212,19 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4261,7 +4261,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>isolation</t>
+          <t>edge compute</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4292,7 +4292,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>software bug</t>
+          <t>fault tolerance</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4323,11 +4323,11 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>fault tolerance</t>
+          <t>distribute compute</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -4354,11 +4354,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>autonomous robot</t>
+          <t>computation</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -4376,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>fault detection</t>
+          <t>software bug</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4416,11 +4416,11 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>distribute compute</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>isolation</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4478,7 +4478,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>edge compute</t>
+          <t>fault detection</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4509,11 +4509,11 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>computation</t>
+          <t>autonomous robot</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -4531,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4571,7 +4571,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>genesis</t>
+          <t>digital linear tape</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4602,11 +4602,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>digital linear tape</t>
+          <t>byzantine fault tolerance</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -4633,11 +4633,11 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>byzantine fault tolerance</t>
+          <t>genesis</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>transfer function</t>
+          <t>first-order logic</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4695,7 +4695,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>program language</t>
+          <t>domain-specific language</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4726,7 +4726,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>b-method</t>
+          <t xml:space="preserve">refinement </t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4757,7 +4757,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>first-order logic</t>
+          <t>type system</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4788,11 +4788,11 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>immutable object</t>
+          <t>principle of abstraction</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4807,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -4819,7 +4819,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>domain-specific language</t>
+          <t>first-order predicate</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4850,7 +4850,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>principle of abstraction</t>
+          <t>program language</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4881,7 +4881,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>first-order predicate</t>
+          <t>transfer function</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4912,7 +4912,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>rodin tool</t>
+          <t>automate theorem prove</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4943,7 +4943,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">refinement </t>
+          <t>rodin tool</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4974,7 +4974,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>type system</t>
+          <t xml:space="preserve">honeypot </t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5005,11 +5005,11 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>automate theorem prove</t>
+          <t>immutable object</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -5024,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -5036,7 +5036,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">honeypot </t>
+          <t>b-method</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5067,11 +5067,11 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>jot</t>
+          <t xml:space="preserve">adversary </t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">sample </t>
+          <t>markov chain</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5129,11 +5129,11 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>malware</t>
+          <t>double-spending</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5151,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>markov chain</t>
+          <t>numerical analysis</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5191,73 +5191,73 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>double-spending</t>
+          <t>cryptocurrency</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>361</v>
+        <v>456</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E154" t="n">
         <v>349</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H154" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency</t>
+          <t xml:space="preserve">sample </t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>numerical analysis</t>
+          <t>direct acyclic graph</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -5275,20 +5275,20 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>jot</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -5309,17 +5309,17 @@
         <v>7</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>selection algorithm</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -5337,20 +5337,20 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">adversary </t>
+          <t>selection algorithm</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -5377,11 +5377,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>direct acyclic graph</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>7</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5439,11 +5439,11 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>commitment scheme</t>
+          <t xml:space="preserve">shard </t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -5563,11 +5563,11 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">shard </t>
+          <t>commitment scheme</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5579,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -5625,7 +5625,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>holographic principle</t>
+          <t>confidentiality</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5656,7 +5656,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>information sensitivity</t>
+          <t>data integrity</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5687,7 +5687,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>personally identifiable information</t>
+          <t>enterprise system</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5718,11 +5718,11 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>business logic</t>
+          <t>information sensitivity</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>business process</t>
+          <t>enterprise integration</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5780,11 +5780,11 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>holographic principle</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5842,7 +5842,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>enterprise system</t>
+          <t>business process</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5873,7 +5873,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>confidentiality</t>
+          <t>personally identifiable information</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5904,7 +5904,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>enterprise integration</t>
+          <t>spectral leakage</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -5935,11 +5935,11 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>data integrity</t>
+          <t>encryption</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5966,11 +5966,11 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>spectral leakage</t>
+          <t>business logic</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -5997,11 +5997,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>encryption</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6059,7 +6059,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>tamper resistance</t>
+          <t>trust third party</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6090,7 +6090,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>trust third party</t>
+          <t>differential privacy</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6121,7 +6121,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>differential privacy</t>
+          <t>tamper resistance</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6183,7 +6183,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>quantum entanglement</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6214,7 +6214,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>quantum entanglement</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6245,7 +6245,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>quantum algorithm</t>
+          <t>temporal logic</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6276,7 +6276,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>temporal logic</t>
+          <t>quantum algorithm</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6400,7 +6400,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">value </t>
+          <t>web of trust</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6462,7 +6462,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>social network</t>
+          <t xml:space="preserve">value </t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6493,7 +6493,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>proof-of-work system</t>
+          <t>social network</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -6524,7 +6524,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>web of trust</t>
+          <t>proof-of-work system</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6648,7 +6648,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>brute-force search</t>
+          <t>contract agreement</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6679,7 +6679,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>contract agreement</t>
+          <t>marijuana abuse</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6710,11 +6710,11 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>brute-force attack</t>
+          <t>antivirus software</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -6741,11 +6741,11 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>antivirus software</t>
+          <t>protocol documentation</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>marijuana abuse</t>
+          <t>brute-force attack</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6803,7 +6803,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>protocol documentation</t>
+          <t>brute-force search</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -6834,7 +6834,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>global network</t>
+          <t>essence</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -6865,7 +6865,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>essence</t>
+          <t>global network</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -6927,11 +6927,11 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>key derivation function</t>
+          <t>public-key cryptography</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -6958,11 +6958,11 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>public-key cryptography</t>
+          <t>key derivation function</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -6989,7 +6989,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>cryptonote</t>
+          <t>stealth</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7020,7 +7020,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>stealth</t>
+          <t>cryptonote</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7051,7 +7051,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">lock </t>
+          <t>software portability</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7082,11 +7082,11 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>computer data storage</t>
+          <t xml:space="preserve">lock </t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
@@ -7113,7 +7113,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>computer performance</t>
+          <t>traction teampage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7175,7 +7175,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>software portability</t>
+          <t>computer performance</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -7206,11 +7206,11 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>traction teampage</t>
+          <t>computer data storage</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H219" t="n">
         <v>4</v>
@@ -7299,11 +7299,11 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>population</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>10</v>
@@ -7330,11 +7330,11 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>sensor</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H223" t="n">
         <v>10</v>
@@ -7516,7 +7516,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>real-time clock</t>
+          <t>tablet dosage form</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -7547,7 +7547,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>smart device</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -7578,7 +7578,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>ephrin type-b receptor 1</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -7609,7 +7609,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>health fraud</t>
+          <t>smartphone</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -7640,7 +7640,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>smartphone</t>
+          <t>tablet computer</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -7671,7 +7671,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>program paradigm</t>
+          <t>smart device</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -7702,7 +7702,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>tablet computer</t>
+          <t>synergy</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -7733,7 +7733,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">exploit </t>
+          <t>program paradigm</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -7795,7 +7795,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -7826,7 +7826,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>real-time clock</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -7857,11 +7857,11 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>smart city</t>
+          <t>botnet</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>exponential</t>
+          <t xml:space="preserve">exploit </t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -7919,7 +7919,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>tablet dosage form</t>
+          <t>ephrin type-b receptor 1</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -7950,11 +7950,11 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>smart city</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>botnet</t>
+          <t>health fraud</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8012,7 +8012,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>synergy</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -8043,7 +8043,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>exponential</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8074,11 +8074,11 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>shamir's secret share</t>
+          <t>zero-knowledge proof</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>21</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -8105,11 +8105,11 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>zero-knowledge proof</t>
+          <t>shamir's secret share</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>21</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">node </t>
+          <t>computational resource</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -8322,7 +8322,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>computational resource</t>
+          <t xml:space="preserve">node </t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -8353,11 +8353,11 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>dust attack</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -8384,11 +8384,11 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>dust attack</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -8415,11 +8415,11 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>eclipse attack</t>
+          <t>peer-to-peer network</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -8446,11 +8446,11 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>countermeasure</t>
+          <t>eclipse attack</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -8477,11 +8477,11 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer network</t>
+          <t>countermeasure</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>decentralize payment system</t>
+          <t>p2p transaction</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -8601,7 +8601,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>p2p transaction</t>
+          <t>bitcoin cyberattacks</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -8632,7 +8632,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>digital wallet</t>
+          <t>bitcoin security</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -8663,7 +8663,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>digital money</t>
+          <t>digital wallet</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -8694,7 +8694,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>bitcoin security</t>
+          <t>digital money</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -8725,7 +8725,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>bitcoin cyberattacks</t>
+          <t>decentralize payment system</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -8818,7 +8818,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>conflict check protocol</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -8880,7 +8880,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>conflict check protocol</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -8911,11 +8911,11 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>mine process</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8942,11 +8942,11 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>decentralize</t>
+          <t>miner</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8973,11 +8973,11 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>miner</t>
+          <t>block withhold</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -9004,11 +9004,11 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>block withhold</t>
+          <t>mine process</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -9283,11 +9283,11 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>proof-of-stake</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -9302,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -9314,11 +9314,11 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>proof-of-stake</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -9333,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="G287" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>air gap storage</t>
+          <t>markov model</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -9438,7 +9438,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>air gap wallet</t>
+          <t>key extraction</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -9469,7 +9469,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>key extraction</t>
+          <t>air gap storage</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -9500,7 +9500,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>markov model</t>
+          <t>private key storage</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -9562,7 +9562,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>private key storage</t>
+          <t>air gap wallet</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -9779,7 +9779,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>vulnerability analysis</t>
+          <t>geth</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -9810,7 +9810,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>geth</t>
+          <t>vulnerability analysis</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -9934,7 +9934,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>auction</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -9965,7 +9965,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>auction</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -9996,11 +9996,11 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>decentralization</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -10021,17 +10021,17 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>decentralization</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -10089,7 +10089,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>security practice</t>
+          <t>tendermint</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -10151,7 +10151,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>tendermint</t>
+          <t>security practice</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -10182,7 +10182,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>contract theory</t>
+          <t>sharding</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -10213,7 +10213,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>sharding</t>
+          <t>security deposit</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -10244,7 +10244,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>security deposit</t>
+          <t>contract theory</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -10461,7 +10461,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>archival science</t>
+          <t>dependability</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -10523,7 +10523,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>dependability</t>
+          <t>archival science</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -10616,11 +10616,11 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>coin hop attack</t>
+          <t>pool mine</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G329" t="n">
         <v>0</v>
@@ -10647,11 +10647,11 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>pool mine</t>
+          <t>coin hop attack</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
@@ -10678,7 +10678,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>uncle block</t>
+          <t>stubborn mine</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -10709,7 +10709,7 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>stubborn mine</t>
+          <t>uncle block</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -10740,11 +10740,11 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>proof of authority</t>
+          <t xml:space="preserve">internet of thing </t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10771,11 +10771,11 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">internet of thing </t>
+          <t>proof of authority</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>delay attack</t>
+          <t>byzantine general problem</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -10895,7 +10895,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>byzantine general problem</t>
+          <t>delay attack</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -11019,11 +11019,11 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>security vulnerability</t>
+          <t>vulnerability trigger</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -11038,10 +11038,10 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -11050,11 +11050,11 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>atomicity violation</t>
+          <t>fuzzing</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -11081,11 +11081,11 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>fuzzer</t>
+          <t>gas consumption</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -11112,11 +11112,11 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>gas consumption</t>
+          <t>security vulnerability</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -11131,10 +11131,10 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -11143,7 +11143,7 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>vulnerability trigger</t>
+          <t>atomicity violation</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -11174,7 +11174,7 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>fuzzing</t>
+          <t>fuzzer</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -11236,7 +11236,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>zksnarks</t>
+          <t>data report</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -11267,7 +11267,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>reward mechanism</t>
+          <t>blockchain.</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -11298,7 +11298,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>blockchain.</t>
+          <t>crowd-sensing</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -11329,7 +11329,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>incentive</t>
+          <t>participatory sense</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -11360,7 +11360,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>data report</t>
+          <t>reward mechanism</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -11391,7 +11391,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>crowd-sensing</t>
+          <t>zksnarks</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -11422,7 +11422,7 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>participatory sense</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -11515,7 +11515,7 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>membership service provider</t>
+          <t>cryptographic attack</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -11546,7 +11546,7 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>cryptographic attack</t>
+          <t>membership service provider</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -11577,7 +11577,7 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>reward</t>
+          <t>gap game</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -11608,7 +11608,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>gap game</t>
+          <t>reward</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -11670,7 +11670,7 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>blockmesh</t>
+          <t>compromise of the protocol</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -11701,7 +11701,7 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>compromise of the protocol</t>
+          <t>blockmesh</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -11763,7 +11763,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>distributed-ledger</t>
+          <t>universal-composability</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -11794,7 +11794,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>universal-composability</t>
+          <t>distributed-ledger</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -11918,7 +11918,7 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>network model</t>
+          <t>consensus security</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -11949,7 +11949,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>consensus security</t>
+          <t>network model</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -12011,11 +12011,11 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>cloud compute</t>
+          <t>block mine</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>37</v>
       </c>
       <c r="G374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -12042,7 +12042,7 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>data provenance</t>
+          <t>blockchain security</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -12073,7 +12073,7 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>block mine</t>
+          <t>data provenance</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -12104,11 +12104,11 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>blockchain security</t>
+          <t>cloud compute</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>37</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -12290,7 +12290,7 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -12321,7 +12321,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -12352,7 +12352,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>mine pool selection</t>
+          <t>evolutionary game theory</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -12383,7 +12383,7 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>evolutionary game theory</t>
+          <t>replicator dynamic</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -12414,7 +12414,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>replicator dynamic</t>
+          <t>mine pool selection</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -12445,7 +12445,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>triangle attack</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -12507,7 +12507,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>triangle attack</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -12569,7 +12569,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>industrial internet of thing privacy</t>
+          <t>industrial internet of thing security</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -12600,7 +12600,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>industrial internet of thing security</t>
+          <t>industrial internet of thing privacy</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -12724,7 +12724,7 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>immutability</t>
+          <t xml:space="preserve">peer-to-peer network </t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -12755,7 +12755,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>logistics</t>
+          <t xml:space="preserve">battlefield management system </t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -12817,7 +12817,7 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">battlefield management system </t>
+          <t>defence application</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -12848,7 +12848,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>defence application</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -12879,7 +12879,7 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">peer-to-peer network </t>
+          <t>immutability</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -12972,11 +12972,11 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>4</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -13003,11 +13003,11 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -13025,7 +13025,7 @@
         <v>4</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -13065,7 +13065,7 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>genetic algorithm</t>
+          <t>fault tolerant</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -13096,7 +13096,7 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>fault tolerant</t>
+          <t>malicious attack</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -13127,7 +13127,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>malicious attack</t>
+          <t>genetic algorithm</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -13158,7 +13158,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>logic risk location</t>
+          <t>topologicalanalysis</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -13189,7 +13189,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>topologicalanalysis</t>
+          <t>logic risk location</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -13251,7 +13251,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>insider threat</t>
+          <t>collaborative intrusion detection</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -13282,7 +13282,7 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>collaborative intrusion detection</t>
+          <t>insider threat</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -13344,7 +13344,7 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>privacy issue</t>
+          <t>privacy solution</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -13375,7 +13375,7 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>security solution</t>
+          <t>privacy issue</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -13406,11 +13406,11 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>security issue</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -13422,10 +13422,10 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -13437,7 +13437,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>privacy solution</t>
+          <t>security issue</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -13468,11 +13468,11 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>security solution</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -13484,10 +13484,10 @@
         <v>0</v>
       </c>
       <c r="F421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -13685,7 +13685,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>energy transaction</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -13716,7 +13716,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>microgrid</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -13747,7 +13747,7 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>microgrid</t>
+          <t>energy transaction</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -13778,7 +13778,7 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>future scope</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -13809,7 +13809,7 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>future scope</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -13902,7 +13902,7 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>internal attack</t>
+          <t>maker-checker</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -13933,7 +13933,7 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>financial system</t>
+          <t>internal attack</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -13964,7 +13964,7 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>maker-checker</t>
+          <t>financial system</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -14088,7 +14088,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">carrier sense multiple access/collision avoidance </t>
+          <t>double-spending attack</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -14119,7 +14119,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>double-spending attack</t>
+          <t xml:space="preserve">carrier sense multiple access/collision avoidance </t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -14181,7 +14181,7 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>criterion rank</t>
+          <t>cybersecurity framework</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -14243,7 +14243,7 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>cybersecurity framework</t>
+          <t>criterion rank</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -14367,7 +14367,7 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>data privacy</t>
+          <t>access control list</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -14398,7 +14398,7 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>pki system</t>
+          <t>data privacy</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -14429,7 +14429,7 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>access control list</t>
+          <t>pki system</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -14584,7 +14584,7 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>fork attack</t>
+          <t>dynamic difficulty factor</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -14646,7 +14646,7 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>dynamic difficulty factor</t>
+          <t>fork attack</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -14739,7 +14739,7 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -14770,7 +14770,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>organisation.</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -14801,7 +14801,7 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>organisation.</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -15018,11 +15018,11 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>risk management</t>
+          <t>stablecoin</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H471" t="n">
         <v>0</v>
@@ -15049,11 +15049,11 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>stablecoin</t>
+          <t>risk management</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H472" t="n">
         <v>0</v>
@@ -15111,7 +15111,7 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>software lifecycle</t>
+          <t>software engineer</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -15142,7 +15142,7 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>software engineer</t>
+          <t>software lifecycle</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -15173,7 +15173,7 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>static analysis</t>
+          <t>vulnerability detection</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -15204,7 +15204,7 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>vulnerability detection</t>
+          <t>static analysis</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -15452,7 +15452,7 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>fpga</t>
+          <t>prototype</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -15483,7 +15483,7 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>fpga</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -15638,7 +15638,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>cyber risk</t>
+          <t>artificial intelligence</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -15669,7 +15669,7 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>cyber risk</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -15700,11 +15700,11 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>security.</t>
+          <t>wban</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
         <v>0</v>
@@ -15725,17 +15725,17 @@
         <v>1</v>
       </c>
       <c r="I493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>wban</t>
+          <t>security.</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -15756,7 +15756,7 @@
         <v>1</v>
       </c>
       <c r="I494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -15824,7 +15824,7 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>openssl</t>
+          <t>supersingular curve</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -15855,7 +15855,7 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>fault attack</t>
+          <t>openssl</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -15886,7 +15886,7 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>invalid curve attack</t>
+          <t>embed security</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -15917,7 +15917,7 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>embed security</t>
+          <t>fault attack</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -15948,7 +15948,7 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>singular curve</t>
+          <t>invalid curve attack</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -15979,7 +15979,7 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>supersingular curve</t>
+          <t>singular curve</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -16103,7 +16103,7 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">block chain </t>
+          <t xml:space="preserve">peer-to-peer </t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -16134,7 +16134,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">peer-to-peer </t>
+          <t xml:space="preserve">smart contract </t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -16165,7 +16165,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart contract </t>
+          <t xml:space="preserve">block chain </t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -16289,7 +16289,7 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>interoperable-blockchains</t>
+          <t>game theory</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -16320,7 +16320,7 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>game theory</t>
+          <t>interoperable-blockchains</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -16351,7 +16351,7 @@
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>spectrum sense</t>
+          <t>ssdf attack</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -16382,7 +16382,7 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>double threshold energy detection</t>
+          <t>spectrum sense</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -16413,7 +16413,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>ssdf attack</t>
+          <t>double threshold energy detection</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -16506,7 +16506,7 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>tangle</t>
+          <t>algor</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -16537,7 +16537,7 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>hyperledger</t>
+          <t>ripple</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -16568,7 +16568,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>00-01</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -16599,7 +16599,7 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>algor</t>
+          <t>hyperledger</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -16630,7 +16630,7 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>00-01</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -16816,7 +16816,7 @@
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>debit card</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -16847,7 +16847,7 @@
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>user perception</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -16878,7 +16878,7 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>debit card</t>
+          <t>user perception</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -16940,7 +16940,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>bitcoin wallet security</t>
+          <t>bitcoins</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -16971,7 +16971,7 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>electrum</t>
+          <t>multibit hd</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -17002,7 +17002,7 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>bitcoins</t>
+          <t>electrum</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -17033,7 +17033,7 @@
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>bitcoin wallet forensics</t>
+          <t>cryptocurrency wallet</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -17064,7 +17064,7 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency wallet</t>
+          <t>bitcoin wallet forensics</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -17095,7 +17095,7 @@
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>multibit hd</t>
+          <t>bitcoin wallet security</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -17188,7 +17188,7 @@
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>swift</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -17219,7 +17219,7 @@
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>ict</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -17250,7 +17250,7 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>peer-to-peer system</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -17281,7 +17281,7 @@
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>ict</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -17312,7 +17312,7 @@
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer system</t>
+          <t>swift</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -17436,7 +17436,7 @@
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>seconomics vulnerability</t>
+          <t>fintech</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -17467,7 +17467,7 @@
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>fintech</t>
+          <t>seconomics vulnerability</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -17529,7 +17529,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>integrate risk analysis</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -17560,7 +17560,7 @@
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>ontology</t>
+          <t>integrate risk analysis</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -17591,7 +17591,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>ontology</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -17684,7 +17684,7 @@
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>delay</t>
+          <t>om oracle</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -17715,7 +17715,7 @@
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>om oracle</t>
+          <t>delay</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -17870,7 +17870,7 @@
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>p2p network</t>
+          <t>defensive protocol</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -17901,7 +17901,7 @@
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>defensive protocol</t>
+          <t>p2p network</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -17932,7 +17932,7 @@
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>pay-to-public-key-hash  protocol</t>
+          <t>trojan message attack</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -17963,7 +17963,7 @@
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>trojan message attack</t>
+          <t>pay-to-public-key-hash  protocol</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -18025,7 +18025,7 @@
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>hide number problem</t>
+          <t>ecdsa</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -18056,7 +18056,7 @@
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>ecdsa</t>
+          <t>crypto</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -18087,7 +18087,7 @@
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>crypto</t>
+          <t>hide number problem</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -18149,7 +18149,7 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>banzhaf index</t>
+          <t>collusion</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -18211,7 +18211,7 @@
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>collusion</t>
+          <t>banzhaf index</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -18645,7 +18645,7 @@
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>denial of service resistance</t>
+          <t>client puzzle</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -18676,7 +18676,7 @@
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>client puzzle</t>
+          <t>distribute computation</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -18707,7 +18707,7 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>distribute computation</t>
+          <t>denial of service resistance</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -18738,7 +18738,7 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>efficient storage</t>
+          <t>high performance compute</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -18769,7 +18769,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>merkle tree</t>
+          <t>gpu process</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -18800,7 +18800,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>high performance compute</t>
+          <t>merkle tree</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -18831,7 +18831,7 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>gpu process</t>
+          <t>consensus validation</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -18862,7 +18862,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>consensus validation</t>
+          <t>efficient storage</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -18986,7 +18986,7 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>softfork transition scheme</t>
+          <t>compromise hash</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -19017,7 +19017,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>compromise hash</t>
+          <t>softfork transition scheme</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -19110,7 +19110,7 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>large deviation theory</t>
+          <t>correlate equilibrium</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -19141,7 +19141,7 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>block synchronization</t>
+          <t>large deviation theory</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -19172,7 +19172,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>correlate equilibrium</t>
+          <t>block synchronization</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -19296,7 +19296,7 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>bitcoin security countermeasure</t>
+          <t>trend in bitcoin security breach</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -19327,7 +19327,7 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>trend in bitcoin security breach</t>
+          <t>bitcoin security countermeasure</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -19358,7 +19358,7 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>challenge mechanism</t>
+          <t>binary tree</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -19420,7 +19420,7 @@
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>binary tree</t>
+          <t>challenge mechanism</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -19482,7 +19482,7 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>invalid ticket</t>
+          <t>concert organizer</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -19513,7 +19513,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>concert organizer</t>
+          <t>invalid ticket</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -19668,7 +19668,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>access control encryption</t>
+          <t>decentralize sanitizers</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -19699,7 +19699,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>decentralize sanitizers</t>
+          <t>access control encryption</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -19792,7 +19792,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>vulnerability injection</t>
+          <t>mutation test</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -19885,7 +19885,7 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>mutation test</t>
+          <t>vulnerability injection</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -19916,7 +19916,7 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>human cognition</t>
+          <t>wannacry ransomware</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -19947,7 +19947,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>wannacry ransomware</t>
+          <t>human cognition</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -20009,7 +20009,7 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>sleepy model</t>
+          <t>dishonest majority</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -20040,7 +20040,7 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>dishonest majority</t>
+          <t>sleepy model</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -20102,7 +20102,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>learn with error</t>
+          <t>elliptic curve</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -20133,7 +20133,7 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>elliptic curve</t>
+          <t>learn with error</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -20226,7 +20226,7 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>intraday financial risk</t>
+          <t>garch</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -20257,7 +20257,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>garch</t>
+          <t>graph analysis</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -20288,7 +20288,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>graph analysis</t>
+          <t>intraday financial risk</t>
         </is>
       </c>
       <c r="B641" t="n">
